--- a/spliced/struggle/2023-04-11_10-34-37/data_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-34-37/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2130537033081054</v>
+        <v>0.2804546356201172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.492556095123291</v>
+        <v>0.4303635954856872</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9500083923339844</v>
+        <v>-0.691750168800354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03028146071093407</v>
+        <v>0.1050096067542932</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6503314929349078</v>
+        <v>-1.756468223065746</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2584614434412545</v>
+        <v>0.4945203567645989</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.370540142059326</v>
+        <v>0.1987819671630859</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.71519660949707</v>
+        <v>0.2879692316055298</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.77233219146728</v>
+        <v>-0.9282988905906676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6556547600395809</v>
+        <v>-0.0286234012063665</v>
       </c>
       <c r="G3" t="n">
-        <v>3.617322595752007</v>
+        <v>-0.7998002785809195</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.325163067603595</v>
+        <v>0.0811297598541999</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.807073593139648</v>
+        <v>0.2130537033081054</v>
       </c>
       <c r="D4" t="n">
-        <v>1.692888975143433</v>
+        <v>0.492556095123291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.979395866394043</v>
+        <v>-0.9500083923339844</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9173419645854408</v>
+        <v>0.03028146071093407</v>
       </c>
       <c r="G4" t="n">
-        <v>4.483878631981052</v>
+        <v>0.6503314929349078</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.026156997194096</v>
+        <v>-0.2584614434412545</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.115023136138916</v>
+        <v>5.370540142059326</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1916569471359253</v>
+        <v>-2.71519660949707</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.226519584655761</v>
+        <v>-10.77233219146728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6556111379545562</v>
+        <v>0.6556547600395809</v>
       </c>
       <c r="G5" t="n">
-        <v>2.95567157317181</v>
+        <v>3.617322595752007</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3850134197546516</v>
+        <v>-1.325163067603595</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6978027820587158</v>
+        <v>1.807073593139648</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2956833839416504</v>
+        <v>1.692888975143433</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6510324478149414</v>
+        <v>0.979395866394043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01345462458474067</v>
+        <v>0.9173419645854408</v>
       </c>
       <c r="G6" t="n">
-        <v>2.573593986277679</v>
+        <v>4.483878631981052</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1254206044333366</v>
+        <v>-1.026156997194096</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.345348596572876</v>
+        <v>-1.115023136138916</v>
       </c>
       <c r="D7" t="n">
-        <v>1.023304224014282</v>
+        <v>-0.1916569471359253</v>
       </c>
       <c r="E7" t="n">
-        <v>2.694005012512207</v>
+        <v>-1.226519584655761</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0735905529284972</v>
+        <v>0.6556111379545562</v>
       </c>
       <c r="G7" t="n">
-        <v>1.541839412736652</v>
+        <v>2.95567157317181</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5845232478209913</v>
+        <v>0.3850134197546516</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-9.996002197265623</v>
+        <v>-0.6978027820587158</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0120857954025268</v>
+        <v>-0.2956833839416504</v>
       </c>
       <c r="E8" t="n">
-        <v>1.461801767349243</v>
+        <v>0.6510324478149414</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5347626531610679</v>
+        <v>0.01345462458474067</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.351723280640276</v>
+        <v>2.573593986277679</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006906517306153076</v>
+        <v>-0.1254206044333366</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.229874610900879</v>
+        <v>-3.345348596572876</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.616225481033325</v>
+        <v>1.023304224014282</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.63714218139648</v>
+        <v>2.694005012512207</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2076723618166787</v>
+        <v>-0.0735905529284972</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.982405117579868</v>
+        <v>1.541839412736652</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1024508295314652</v>
+        <v>-0.5845232478209913</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.585046291351318</v>
+        <v>-9.996002197265623</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.405134916305542</v>
+        <v>-0.0120857954025268</v>
       </c>
       <c r="E10" t="n">
-        <v>1.352597236633301</v>
+        <v>1.461801767349243</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6092913156869469</v>
+        <v>0.5347626531610679</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.47834036301593</v>
+        <v>-1.351723280640276</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3969252789203029</v>
+        <v>0.006906517306153076</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.109971046447754</v>
+        <v>4.229874610900879</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2804408073425293</v>
+        <v>-2.616225481033325</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.378412246704102</v>
+        <v>-11.63714218139648</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4407143246154432</v>
+        <v>0.2076723618166787</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.636212723595754</v>
+        <v>-3.982405117579868</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6680403655889118</v>
+        <v>-0.1024508295314652</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6.216216564178467</v>
+        <v>-5.585046291351318</v>
       </c>
       <c r="D12" t="n">
-        <v>2.080293655395508</v>
+        <v>-1.405134916305542</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.55400562286377</v>
+        <v>1.352597236633301</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2482107579708095</v>
+        <v>-0.6092913156869469</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.94579162889598</v>
+        <v>-4.47834036301593</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002957710806204883</v>
+        <v>0.3969252789203029</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.478143692016602</v>
+        <v>-3.109971046447754</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5579037666320801</v>
+        <v>-0.2804408073425293</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.963788509368896</v>
+        <v>-1.378412246704102</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1622283559064473</v>
+        <v>-0.4407143246154432</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07419828006199625</v>
+        <v>-3.636212723595754</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1648120685499541</v>
+        <v>0.6680403655889118</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.977913856506348</v>
+        <v>-6.216216564178467</v>
       </c>
       <c r="D14" t="n">
-        <v>1.696393609046936</v>
+        <v>2.080293655395508</v>
       </c>
       <c r="E14" t="n">
-        <v>4.733741760253906</v>
+        <v>-6.55400562286377</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2419649730531533</v>
+        <v>0.2482107579708095</v>
       </c>
       <c r="G14" t="n">
-        <v>4.375038618944129</v>
+        <v>-2.94579162889598</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3818312956362353</v>
+        <v>0.002957710806204883</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.786364078521728</v>
+        <v>-2.478143692016602</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.5252545475959778</v>
+        <v>-0.5579037666320801</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.082462787628174</v>
+        <v>-6.963788509368896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5893073264433398</v>
+        <v>0.1622283559064473</v>
       </c>
       <c r="G15" t="n">
-        <v>6.328164937544838</v>
+        <v>0.07419828006199625</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07646724885823974</v>
+        <v>-0.1648120685499541</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-3.566806316375732</v>
+        <v>1.977913856506348</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4948284029960632</v>
+        <v>1.696393609046936</v>
       </c>
       <c r="E16" t="n">
-        <v>1.737120628356934</v>
+        <v>4.733741760253906</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.175296502453943</v>
+        <v>0.2419649730531533</v>
       </c>
       <c r="G16" t="n">
-        <v>2.29715876919883</v>
+        <v>4.375038618944129</v>
       </c>
       <c r="H16" t="n">
-        <v>1.448470601013731</v>
+        <v>-0.3818312956362353</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-6.714832305908203</v>
+        <v>-1.786364078521728</v>
       </c>
       <c r="D17" t="n">
-        <v>2.814615249633789</v>
+        <v>-0.5252545475959778</v>
       </c>
       <c r="E17" t="n">
-        <v>5.518161296844482</v>
+        <v>-2.082462787628174</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8341801327710269</v>
+        <v>0.5893073264433398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.753240480714915</v>
+        <v>6.328164937544838</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1038439748238527</v>
+        <v>0.07646724885823974</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-4.827847480773926</v>
+        <v>-3.566806316375732</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.360194683074951</v>
+        <v>0.4948284029960632</v>
       </c>
       <c r="E18" t="n">
-        <v>7.510563373565674</v>
+        <v>1.737120628356934</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1397884144466732</v>
+        <v>-0.175296502453943</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2036113617371567</v>
+        <v>2.29715876919883</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.8063265510967792</v>
+        <v>1.448470601013731</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.930130958557129</v>
+        <v>-6.714832305908203</v>
       </c>
       <c r="D19" t="n">
-        <v>4.015055179595947</v>
+        <v>2.814615249633789</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.047464370727539</v>
+        <v>5.518161296844482</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7627712436476506</v>
+        <v>0.8341801327710269</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.678813515877241</v>
+        <v>0.753240480714915</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.093177660387389</v>
+        <v>-0.1038439748238527</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-4.561958312988281</v>
+        <v>-4.827847480773926</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1262733936309814</v>
+        <v>-7.360194683074951</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.993290901184082</v>
+        <v>7.510563373565674</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0004051567948546442</v>
+        <v>-0.1397884144466732</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.697911312993704</v>
+        <v>0.2036113617371567</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.4782794093599184</v>
+        <v>-0.8063265510967792</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.930130958557129</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.015055179595947</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5.047464370727539</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.7627712436476506</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.678813515877241</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.093177660387389</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.561958312988281</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1262733936309814</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.993290901184082</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0004051567948546442</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.697911312993704</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.4782794093599184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>-2.729169845581055</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>3.059413433074951</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E23" t="n">
         <v>-4.533473014831543</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F23" t="n">
         <v>-0.8633800915309378</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G23" t="n">
         <v>-0.3154059344408438</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>0.4824308418497782</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4514303207397461</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.07753515243530271</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.056098580360413</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.4081483519807154</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.6726997543354425</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2190668820118418</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.037992477416992</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.273390769958496</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4362349510192871</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2211332225373814</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.241335413285664</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08368853798934378</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0754270553588867</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.646718859672546</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.695090532302856</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06768137718341787</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3379019900244107</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1505034766635118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2560558319091797</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3026316165924072</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.4233262538909912</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.07254024853511698</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5556785336562575</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.05807583201296457</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6335611343383789</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8106564879417419</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.443797469139099</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1816357883567719</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1322741392923868</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.08515337003128903</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09285736083984369</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7357764840126038</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.646607518196106</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.02734556931013958</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1169588795425942</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04497027853313797</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0882749557495117</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1726978719234466</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.9354652166366576</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.02540700723017953</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.06986615411481072</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.074921377335808</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2656211853027344</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4902379512786865</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.8409426212310791</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02237761537639455</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.07008743807863513</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.003453258577050004</v>
       </c>
     </row>
   </sheetData>
